--- a/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,87; 93,31</t>
+          <t>89,91; 93,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,31; 93,12</t>
+          <t>89,4; 93,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,86; 93,03</t>
+          <t>88,95; 93,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,63; 95,31</t>
+          <t>92,65; 95,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,99</t>
+          <t>93,61; 96,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,85</t>
+          <t>94,41; 97,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,96; 94,02</t>
+          <t>91,99; 94,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>92,32; 94,49</t>
+          <t>92,38; 94,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,49; 94,92</t>
+          <t>92,61; 94,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,6; 94,25</t>
+          <t>91,74; 94,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,9; 95,17</t>
+          <t>92,8; 95,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,74; 92,33</t>
+          <t>89,83; 92,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,49; 94,95</t>
+          <t>92,4; 94,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,38; 94,9</t>
+          <t>92,33; 94,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,6; 94,78</t>
+          <t>92,53; 94,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,41; 94,22</t>
+          <t>92,43; 94,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,05; 94,66</t>
+          <t>93,09; 94,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,62; 93,27</t>
+          <t>91,54; 93,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,64; 96,58</t>
+          <t>92,48; 96,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,41; 96,27</t>
+          <t>91,57; 96,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,01; 96,32</t>
+          <t>92,14; 96,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,8; 98,14</t>
+          <t>94,89; 98,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,04; 95,7</t>
+          <t>91,28; 95,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,83; 94,44</t>
+          <t>89,88; 94,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,4; 96,93</t>
+          <t>94,3; 96,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,64</t>
+          <t>92,33; 95,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,75; 94,65</t>
+          <t>91,87; 94,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,86; 93,75</t>
+          <t>91,91; 93,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,42; 94,22</t>
+          <t>92,46; 94,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,79; 92,69</t>
+          <t>90,67; 92,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,05</t>
+          <t>93,44; 95,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,32; 94,89</t>
+          <t>93,24; 94,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,25; 94,8</t>
+          <t>93,22; 94,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,93; 94,19</t>
+          <t>92,97; 94,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,14; 94,34</t>
+          <t>93,14; 94,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,31; 93,58</t>
+          <t>92,26; 93,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,91; 93,27</t>
+          <t>89,77; 93,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,4; 93,26</t>
+          <t>89,45; 93,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,95; 93,06</t>
+          <t>88,89; 92,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,93; 87,27</t>
+          <t>81,17; 87,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,65; 95,22</t>
+          <t>92,77; 95,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,61; 96,22</t>
+          <t>93,59; 96,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,41; 97,0</t>
+          <t>94,39; 97,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,81; 91,21</t>
+          <t>87,82; 91,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,99; 94,06</t>
+          <t>91,88; 94,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>92,38; 94,45</t>
+          <t>92,37; 94,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,61; 94,92</t>
+          <t>92,47; 94,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,83; 89,07</t>
+          <t>85,66; 88,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,74; 94,26</t>
+          <t>91,52; 94,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,8; 95,12</t>
+          <t>92,86; 95,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,83; 92,45</t>
+          <t>89,82; 92,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,88; 89,32</t>
+          <t>85,61; 89,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,4; 94,79</t>
+          <t>92,47; 94,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,33; 94,82</t>
+          <t>92,29; 94,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,53; 94,69</t>
+          <t>92,62; 94,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,7; 90,67</t>
+          <t>86,68; 90,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,43; 94,25</t>
+          <t>92,41; 94,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,09; 94,64</t>
+          <t>92,95; 94,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,54; 93,23</t>
+          <t>91,6; 93,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,87; 89,53</t>
+          <t>86,93; 89,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,48; 96,47</t>
+          <t>92,73; 96,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,57; 96,26</t>
+          <t>91,59; 96,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,14; 96,33</t>
+          <t>92,14; 96,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,87; 90,41</t>
+          <t>84,91; 90,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,89; 98,25</t>
+          <t>94,9; 98,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,28; 95,99</t>
+          <t>91,26; 95,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,39</t>
+          <t>89,83; 94,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,56; 91,71</t>
+          <t>87,54; 91,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,89</t>
+          <t>94,34; 96,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,33; 95,65</t>
+          <t>92,31; 95,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,87; 94,82</t>
+          <t>91,86; 94,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,1; 90,39</t>
+          <t>87,16; 90,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,91; 93,75</t>
+          <t>91,94; 93,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,46; 94,26</t>
+          <t>92,51; 94,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,67; 92,69</t>
+          <t>90,67; 92,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,63; 88,36</t>
+          <t>85,64; 88,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,44; 95,04</t>
+          <t>93,53; 95,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,24; 94,99</t>
+          <t>93,3; 94,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,22; 94,79</t>
+          <t>93,3; 94,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,81; 90,3</t>
+          <t>87,75; 90,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,97; 94,2</t>
+          <t>93,01; 94,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,14; 94,37</t>
+          <t>93,13; 94,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,26; 93,55</t>
+          <t>92,33; 93,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,14; 89,12</t>
+          <t>87,23; 89,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>87,73%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,17; 87,18</t>
+          <t>81,86; 87,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,82; 91,09</t>
+          <t>88,08; 91,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,66; 88,92</t>
+          <t>86,02; 89,18</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>88,04%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,61; 89,15</t>
+          <t>86,69; 92,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,68; 90,56</t>
+          <t>76,44; 90,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,93; 89,48</t>
+          <t>83,49; 90,21</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>88,92%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,91; 90,66</t>
+          <t>84,99; 90,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,54; 91,58</t>
+          <t>87,51; 91,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,16; 90,52</t>
+          <t>87,13; 90,59</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>88,15%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,64; 88,32</t>
+          <t>86,58; 90,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,75; 90,3</t>
+          <t>81,78; 90,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,23; 89,15</t>
+          <t>85,25; 89,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,77; 93,14</t>
+          <t>89,88; 93,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,45; 93,15</t>
+          <t>89,48; 93,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,89; 92,99</t>
+          <t>88,59; 92,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,86; 87,66</t>
+          <t>81,57; 87,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,77; 95,36</t>
+          <t>92,66; 95,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,59; 96,07</t>
+          <t>93,53; 96,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,39; 97,02</t>
+          <t>94,31; 96,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,08; 91,29</t>
+          <t>87,96; 91,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,88; 94,08</t>
+          <t>91,9; 94,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>92,37; 94,41</t>
+          <t>92,43; 94,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,47; 94,9</t>
+          <t>92,55; 94,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,02; 89,18</t>
+          <t>86,09; 89,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,52; 94,16</t>
+          <t>91,63; 94,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,86; 95,07</t>
+          <t>92,89; 95,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,82; 92,43</t>
+          <t>89,98; 92,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,69; 92,2</t>
+          <t>86,8; 92,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,47; 94,86</t>
+          <t>92,43; 94,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,29; 94,78</t>
+          <t>92,32; 94,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,62; 94,67</t>
+          <t>92,48; 94,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,44; 90,86</t>
+          <t>77,34; 91,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,41; 94,19</t>
+          <t>92,52; 94,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,95; 94,67</t>
+          <t>92,91; 94,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,6; 93,26</t>
+          <t>91,55; 93,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>83,49; 90,21</t>
+          <t>83,06; 90,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,73; 96,54</t>
+          <t>92,83; 96,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,59; 96,19</t>
+          <t>91,37; 96,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,14; 96,32</t>
+          <t>92,2; 96,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,99; 90,74</t>
+          <t>84,92; 90,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,9; 98,09</t>
+          <t>94,84; 98,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,26; 95,88</t>
+          <t>91,02; 95,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,83; 94,62</t>
+          <t>89,34; 94,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,51; 91,6</t>
+          <t>87,48; 91,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,34; 96,92</t>
+          <t>94,1; 96,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,31; 95,43</t>
+          <t>92,22; 95,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,86; 94,93</t>
+          <t>91,62; 94,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,13; 90,59</t>
+          <t>87,32; 90,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,78</t>
+          <t>91,95; 93,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,51; 94,25</t>
+          <t>92,46; 94,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,67; 92,64</t>
+          <t>90,76; 92,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,58; 90,65</t>
+          <t>86,55; 90,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,16</t>
+          <t>93,46; 95,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,3; 94,88</t>
+          <t>93,27; 95,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,3; 94,9</t>
+          <t>93,27; 94,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,78; 90,41</t>
+          <t>82,41; 90,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,01; 94,18</t>
+          <t>92,99; 94,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,13; 94,37</t>
+          <t>93,08; 94,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,33; 93,58</t>
+          <t>92,23; 93,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,25; 89,76</t>
+          <t>84,69; 89,61</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1547</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>945367</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>891903</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>685928</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>436813</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1237726</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1268001</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>951816</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>677786</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2183092</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2159904</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1637744</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1114599</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>927353; 961879</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>872093; 910214</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>666560; 699579</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>420015; 450319</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1218581; 1253721</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1249281; 1283087</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>937253; 963115</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>664565; 690639</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2156830; 2206356</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2135403; 2184189</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1615997; 1656623</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1093728; 1134015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1747</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2994</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4372</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1574234</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1846843</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1889508</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2034972</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1487019</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1643117</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1861439</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1951748</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3061253</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3489960</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3750946</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3986720</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1550821; 1593363</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1823516; 1866670</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1863930; 1915020</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1987957; 2119663</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1466380; 1505058</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1620009; 1664060</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1836896; 1880959</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1730826; 2040211</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3033794; 3093420</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3454225; 3517233</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3714855; 3782817</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3761253; 4087212</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1505</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>522941</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>453117</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>516953</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>569652</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>461191</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>429822</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>507350</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>592655</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>984132</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>882939</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1024304</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1162307</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>511880; 532139</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>439677; 462413</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>504235; 526987</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>549107; 586712</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>451809; 467811</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>416610; 438856</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>490580; 517191</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>577795; 605209</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>967181; 995487</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>865854; 896362</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1004189; 1039912</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1141345; 1185809</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2993</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2966</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3108</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3122</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4792</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6094</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6091</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6072</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7758</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3042541</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3191863</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3092389</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3041438</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3185936</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3340940</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3320604</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3222190</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6228477</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6532804</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6412993</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6263628</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3012122; 3070252</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3160949; 3220250</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3059153; 3124535</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2987766; 3128667</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3157099; 3211411</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3309657; 3372127</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3291626; 3346926</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3011113; 3309454</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6187214; 6267283</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6485311; 6572688</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6363696; 6455747</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6017738; 6367130</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>